--- a/biology/Médecine/1901_en_santé_et_médecine/1901_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1901_en_santé_et_médecine/1901_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1901_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1901 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1901_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Autriche
-Mars : à la 10e exposition de la Sécession, Gustav Klimt présente La Médecine, l'une des peintures qui lui ont été commandées pour orner le hall d'entrée de l'université de Vienne.
-14 novembre : le bactériologiste autrichien Karl Landsteiner publie à Vienne un article dans lequel il annonce la découverte de trois groupes sanguins (système ABO)[1].
-États-Unis
-14 septembre : mort du président William McKinley à la suite d'une blessure par balles mal soignée depuis le 6 septembre, date de l'attentat[2].
-France
-25 janvier : Fernand Cathelin, interne en neurologie dans le service de chirurgie de l’hôpital Tenon, commence ses expériences d’anesthésie péridurale[3].
-1er mars : ouverture de l'hôpital Bretonneau[4].
-29 mars : le Conseil d'État français arbitre sur le droit d'une municipalité à appointer un médecin chargé de soigner gratuitement tous les habitants de la commune[5].
-31 mars : création de la Société française de prophylaxie sanitaire et morale par Jean-Alfred Fournier[6].
-Mai : inauguration de l'institut colonial de Bordeaux, qui comprend un musée ethnographique situé dans les locaux de la faculté de médecine[7].
-5 juin : Pierre Curie et Henri Becquerel publient une note sur les effets physiologiques des radiations[8],[9].
-Le 14e congrès français de chirurgie se tient à Paris sous la présidence d'Aimé Guinard[10].</t>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mars : à la 10e exposition de la Sécession, Gustav Klimt présente La Médecine, l'une des peintures qui lui ont été commandées pour orner le hall d'entrée de l'université de Vienne.
+14 novembre : le bactériologiste autrichien Karl Landsteiner publie à Vienne un article dans lequel il annonce la découverte de trois groupes sanguins (système ABO).</t>
         </is>
       </c>
     </row>
@@ -535,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1901_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Novembre : Henri Danlos publie de premiers résultats sur le traitement du lupus par la radiumthérapie[8],[11].
-25 novembre 1901 : Alois Alzheimer décrit le tableau clinique de la maladie qui porte son nom. En 2018, il n'existe toujours aucun traitement connu[12].</t>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14 septembre : mort du président William McKinley à la suite d'une blessure par balles mal soignée depuis le 6 septembre, date de l'attentat.</t>
         </is>
       </c>
     </row>
@@ -566,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1901_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +593,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix Nobel de médecine : Emil von Behring, « pour ses travaux sur la sérothérapie, en particulier sur son usage contre la diphtérie, par lesquels il a ouvert une nouvelle voie à la science médicale[13] ».</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25 janvier : Fernand Cathelin, interne en neurologie dans le service de chirurgie de l’hôpital Tenon, commence ses expériences d’anesthésie péridurale.
+1er mars : ouverture de l'hôpital Bretonneau.
+29 mars : le Conseil d'État français arbitre sur le droit d'une municipalité à appointer un médecin chargé de soigner gratuitement tous les habitants de la commune.
+31 mars : création de la Société française de prophylaxie sanitaire et morale par Jean-Alfred Fournier.
+Mai : inauguration de l'institut colonial de Bordeaux, qui comprend un musée ethnographique situé dans les locaux de la faculté de médecine.
+5 juin : Pierre Curie et Henri Becquerel publient une note sur les effets physiologiques des radiations,.
+Le 14e congrès français de chirurgie se tient à Paris sous la présidence d'Aimé Guinard.</t>
         </is>
       </c>
     </row>
@@ -596,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1901_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,64 +635,133 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Novembre : Henri Danlos publie de premiers résultats sur le traitement du lupus par la radiumthérapie,.
+25 novembre 1901 : Alois Alzheimer décrit le tableau clinique de la maladie qui porte son nom. En 2018, il n'existe toujours aucun traitement connu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1901_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Emil von Behring, « pour ses travaux sur la sérothérapie, en particulier sur son usage contre la diphtérie, par lesquels il a ouvert une nouvelle voie à la science médicale ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1901_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1901_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>20 janvier : Margaret Pittman (morte en 1995), bactériologiste américaine, chef de laboratoire des produits bactériens au National Institutes of Health (NIH).
 21 avril : Raymond Bolzinger (mort en 1983), médecin militaire français.
-30 avril : Ernest Schaffner (mort en 1966), médecin et homme politique français, spécialiste de la phtisie et de la silicose[14].
+30 avril : Ernest Schaffner (mort en 1966), médecin et homme politique français, spécialiste de la phtisie et de la silicose.
 14 mai : Gaston Baissette (mort en 1977), médecin hygiéniste et écrivain français.
 1er juin : Derek Denny-Brown (mort en 1981), neurologue britannique, naturalisé américain.
 3 juin : Louis Justin-Besançon (mort en 1989), médecin français.
 7 juillet : Gertrude Duby Blom (morte en 1993), journaliste, ethnologue et photographe suisse.
-20 juillet : Ida Mett (morte en 1973), médecin, essayiste et syndicaliste libertaire d'origine russe[15].
-16 octobre : Pierre Huard (mort en 1983), chirurgien et anatomiste français, anthropologue, historien de la médecine[16].
+20 juillet : Ida Mett (morte en 1973), médecin, essayiste et syndicaliste libertaire d'origine russe.
+16 octobre : Pierre Huard (mort en 1983), chirurgien et anatomiste français, anthropologue, historien de la médecine.
 26 novembre : Raymond Debenedetti (mort en 1969), médecin militaire français.
 5 décembre : Milton Erickson (mort en 1980), psychiatre et psychologue américain, promoteur de l'hypnose thérapeutique.
 Date inconnue
-Paul-René Bize (mort en 1991), neurologue et criminologue français[17].
-Alfred Leuthold (mort en 1982), vétérinaire suisse[18].
-Li T'ao (mort en 1959), médecin chinois, historien de la médecine traditionnelle[19],[20].
-Marcel Marchand (mort en 1984), médecin français, pionnier de la médecine du travail[21],[22].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1901_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+Paul-René Bize (mort en 1991), neurologue et criminologue français.
+Alfred Leuthold (mort en 1982), vétérinaire suisse.
+Li T'ao (mort en 1959), médecin chinois, historien de la médecine traditionnelle,.
+Marcel Marchand (mort en 1984), médecin français, pionnier de la médecine du travail,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1901_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1901_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>5 janvier : Pierre Potain (né en 1825), cardiologue français.
-2 avril : James Compton-Burnett (né en 1840), homéopathe[23].
+2 avril : James Compton-Burnett (né en 1840), homéopathe.
 8 avril :
 Émile Decroix (né en 1821), vétérinaire français.
 Giulio Bizzozero (né en 1846), médecin italien, considéré comme le père de l'histologie italienne, ainsi que l'un des précurseurs de la médecine préventive.
 21 juillet : Henri de Lacaze-Duthiers (né en 1821), anatomiste, biologiste et zoologiste français.
 4 août : Jean Guignard (né en 1829), médecin, chirurgien et homme politique français.
-12 août : Alfred Le Roy de Méricourt (né en 1825), médecin français, spécialiste de médecine navale[24].
+12 août : Alfred Le Roy de Méricourt (né en 1825), médecin français, spécialiste de médecine navale.
 Date indéterminée
 Giovanni Montano (it) (né en 1844), médecin et scientifique italien qui a décrit le favisme.</t>
         </is>
